--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530014.58564929</v>
+        <v>2650608.612843117</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5510113.604014488</v>
+        <v>5824067.892315116</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>125.1948107223365</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>76.54076221230486</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>24.89835081962322</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>51.26650628725682</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -905,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>168.5351057930823</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>130.6430386046072</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>76.91854186162985</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>18.38766003735405</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>54.51163916463825</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>203.0830083370458</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>91.1245983820366</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,16 +1347,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.5118483107699</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1376,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>52.1634712284786</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1424,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>30.32545238830306</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>180.7749361102169</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>281.9238344909312</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1771,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>157.0668051049846</v>
+        <v>239.5589827910226</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>90.11778478721214</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>59.00434261725469</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>190.5816766492947</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>246.9975734468499</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>38.41663030328992</v>
+        <v>206.3182845709199</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>60.1546697496713</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>42.31046081014885</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2795,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068504</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>94.24950105260247</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>135.5235694619535</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>177.3760137358549</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>116.167611819079</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>147.8541881549516</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3673,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>119.0784066832923</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>139.5684609153467</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068503</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.1796603625313</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>12.89129473383261</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>81.47201079466373</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,10 +3982,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>190.348415859744</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4183,25 +4185,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>146.3034971231916</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.441528830622</v>
+        <v>563.0709252622231</v>
       </c>
       <c r="C2" t="n">
-        <v>664.5812028843262</v>
+        <v>540.2105993159273</v>
       </c>
       <c r="D2" t="n">
-        <v>645.3289861097305</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>219.3520462575881</v>
+        <v>94.98144268918924</v>
       </c>
       <c r="F2" t="n">
-        <v>198.2682684873924</v>
+        <v>73.89766491899354</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="N2" t="n">
-        <v>950.4838058662885</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1753.425569264462</v>
       </c>
       <c r="U2" t="n">
-        <v>1520.30675795911</v>
+        <v>1753.425569264462</v>
       </c>
       <c r="V2" t="n">
-        <v>1520.30675795911</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="W2" t="n">
-        <v>1520.30675795911</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="X2" t="n">
-        <v>1108.586759126858</v>
+        <v>984.2161555584588</v>
       </c>
       <c r="Y2" t="n">
-        <v>703.249489081748</v>
+        <v>982.9192895537532</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>425.3664405251911</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>425.3664405251911</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>904.3053647676195</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>904.3053647676195</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>735.4699216990982</v>
+        <v>958.566484943325</v>
       </c>
       <c r="C4" t="n">
-        <v>563.4973585780142</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>400.1805857047849</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>400.1805857047849</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>228.3188114793453</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>62.06184177357747</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>782.7871087254983</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="U4" t="n">
-        <v>1518.376561228814</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="V4" t="n">
-        <v>1236.665093836843</v>
+        <v>1666.148754037072</v>
       </c>
       <c r="W4" t="n">
-        <v>961.8126900093562</v>
+        <v>1391.296350209585</v>
       </c>
       <c r="X4" t="n">
-        <v>961.8126900093562</v>
+        <v>1148.732453655391</v>
       </c>
       <c r="Y4" t="n">
-        <v>735.4699216990982</v>
+        <v>1148.732453655391</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>824.2522897001688</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>397.351559713469</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>378.0993429388733</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>357.6855680512415</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>814.4714747539724</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>1950.306477736444</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="V5" t="n">
-        <v>1383.742914040727</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="W5" t="n">
-        <v>1383.742914040727</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.063319248878</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1244.100653991699</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>393.2225928484409</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.1723260423256</v>
+        <v>839.1397001855348</v>
       </c>
       <c r="C7" t="n">
-        <v>358.1723260423256</v>
+        <v>667.1671370644508</v>
       </c>
       <c r="D7" t="n">
-        <v>358.1723260423256</v>
+        <v>667.1671370644508</v>
       </c>
       <c r="E7" t="n">
-        <v>358.1723260423256</v>
+        <v>500.9589312173043</v>
       </c>
       <c r="F7" t="n">
-        <v>358.1723260423256</v>
+        <v>329.0971569918647</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>162.8401872860969</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1773.06473758954</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>1498.212333762053</v>
       </c>
       <c r="X7" t="n">
-        <v>548.3382947543912</v>
+        <v>1255.648437207858</v>
       </c>
       <c r="Y7" t="n">
-        <v>548.3382947543912</v>
+        <v>1029.305668897601</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.2403783903284</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1790.537361258874</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1790.537361258874</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1790.537361258874</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1790.537361258874</v>
+        <v>1657.054697076327</v>
       </c>
       <c r="W8" t="n">
-        <v>1394.146011559221</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X8" t="n">
-        <v>982.4260127269681</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.0887426818584</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358747</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>638.2268664206319</v>
+        <v>976.1595596926588</v>
       </c>
       <c r="C10" t="n">
-        <v>466.2543032995479</v>
+        <v>804.1869965715748</v>
       </c>
       <c r="D10" t="n">
-        <v>302.9375304263186</v>
+        <v>640.8702236983455</v>
       </c>
       <c r="E10" t="n">
-        <v>302.9375304263186</v>
+        <v>474.662017851199</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>302.8002436257594</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>136.5432739199916</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>136.5432739199916</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1432.125227786372</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1432.125227786372</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.272823958885</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X10" t="n">
-        <v>1054.735603442956</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3928351326977</v>
+        <v>976.1595596926588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.133225325454</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>881.2324953387545</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>457.9398745237547</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>457.9398745237547</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>457.9398745237547</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>72.48424976299954</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>72.48424976299954</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>969.4768405801187</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N11" t="n">
-        <v>1866.469431397238</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O11" t="n">
-        <v>2711.61408154805</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645793</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3298.91962306775</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2941.430208194</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.038858494347</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2133.318859662094</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.981589616984</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299954</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299954</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2830578459057</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M12" t="n">
-        <v>909.2830578459057</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N12" t="n">
-        <v>909.6712922473346</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.5523309221616</v>
+        <v>3580.016453211603</v>
       </c>
       <c r="C13" t="n">
-        <v>676.5797678010775</v>
+        <v>3408.043890090519</v>
       </c>
       <c r="D13" t="n">
-        <v>676.5797678010775</v>
+        <v>3244.72711721729</v>
       </c>
       <c r="E13" t="n">
-        <v>510.3715619539311</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="F13" t="n">
-        <v>338.5097877284915</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2528180227236</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.557929402028</v>
+        <v>4824.757709204499</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.373480902332</v>
+        <v>4544.573260704804</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.662013510361</v>
+        <v>4513.941490615609</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.662013510361</v>
+        <v>4239.089086788122</v>
       </c>
       <c r="X13" t="n">
-        <v>1265.061067944485</v>
+        <v>3996.525190233927</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.718299634227</v>
+        <v>3770.182421923669</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1633.426090407681</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1206.525360420981</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>783.2327396059816</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>357.2557997538391</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>72.48424976299954</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801187</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.469431397238</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>2763.462022214357</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>3608.606672365169</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>3608.606672365169</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3266.723073276226</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2458.611724744321</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2053.274454699211</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299954</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299954</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M15" t="n">
-        <v>72.48424976299954</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>700.8286864422321</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>700.8286864422321</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.4084025814685</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C16" t="n">
-        <v>817.4358394603845</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D16" t="n">
-        <v>654.1190665871552</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>487.9108607400087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>316.0490865145692</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145692</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.422881921163</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.769543431279</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.917139603792</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X16" t="n">
-        <v>1405.917139603792</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y16" t="n">
-        <v>1179.574371293534</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="17">
@@ -5525,19 +5527,19 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>832.9089957654462</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="C19" t="n">
-        <v>832.9089957654462</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>669.5922228922169</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>503.3840170450704</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5704,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>1482.417937673434</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.638861031707</v>
+        <v>1482.417937673434</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.074964477512</v>
+        <v>1239.854041119239</v>
       </c>
       <c r="Y19" t="n">
-        <v>1023.074964477512</v>
+        <v>1013.511272808981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5841,16 +5843,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3851.646795696768</v>
+        <v>855.9588572096898</v>
       </c>
       <c r="C22" t="n">
-        <v>3679.674232575684</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D22" t="n">
-        <v>3516.357459702454</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E22" t="n">
-        <v>3350.149253855308</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>3178.287479629868</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4875.590312888404</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>4595.405864388708</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V22" t="n">
-        <v>4595.405864388708</v>
+        <v>1789.883894613695</v>
       </c>
       <c r="W22" t="n">
-        <v>4320.553460561221</v>
+        <v>1515.031490786208</v>
       </c>
       <c r="X22" t="n">
-        <v>4077.989564007026</v>
+        <v>1272.467594232013</v>
       </c>
       <c r="Y22" t="n">
-        <v>3851.646795696768</v>
+        <v>1046.124825921755</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5974,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
         <v>839.4070255988736</v>
@@ -5981,43 +5983,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>338.6504695827671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1054.158777558266</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1983.783825177543</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2988.069926596601</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596601</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1437.433383623377</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3854.586992529305</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>3682.614429408221</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>4871.796322517326</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>4591.611874017631</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V25" t="n">
-        <v>4309.900406625659</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W25" t="n">
-        <v>4271.095729551629</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X25" t="n">
-        <v>4271.095729551629</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y25" t="n">
-        <v>4044.752961241371</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>456.2068044646703</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1171.715112440169</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>2101.340160059446</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>3105.626261478504</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6315,13 +6317,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>1582.26891798564</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.3940204581201</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C28" t="n">
-        <v>440.421457337036</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D28" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>1546.319057862125</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.466654034638</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.902757480444</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.5599891701856</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,13 +6499,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6540,19 +6542,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
         <v>1446.844867123559</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>919.5070618231949</v>
+        <v>675.392528877774</v>
       </c>
       <c r="C31" t="n">
-        <v>747.5344987021109</v>
+        <v>675.392528877774</v>
       </c>
       <c r="D31" t="n">
-        <v>584.2177258288816</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2140.47561129138</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1860.291162791684</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.579695399713</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.579695399713</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1336.015798845518</v>
+        <v>1091.901265900098</v>
       </c>
       <c r="Y31" t="n">
-        <v>1109.673030535261</v>
+        <v>865.5584975898396</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636432</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787244</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1933.413002695814</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1653.228554196118</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>1371.517086804147</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.66468297666</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>854.1007864224655</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>627.7580181122075</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7020,22 +7022,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.5965237391339</v>
+        <v>1139.50808509631</v>
       </c>
       <c r="C37" t="n">
-        <v>575.6239606180499</v>
+        <v>967.5355219752259</v>
       </c>
       <c r="D37" t="n">
-        <v>412.3071877448206</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7126,19 +7128,19 @@
         <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1963.23302853511</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V37" t="n">
-        <v>1681.521561143139</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.669157315652</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="X37" t="n">
-        <v>1164.105260761457</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.7624924511995</v>
+        <v>1329.674053808376</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1992.299474466079</v>
       </c>
       <c r="V40" t="n">
-        <v>1759.191944545161</v>
+        <v>1710.588007074108</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.213701196326</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="X40" t="n">
-        <v>1375.649804642131</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>435.087708579895</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>600.1541536380316</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>1497.146744455151</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605963</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149977</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276226</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3266.723073276226</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3266.723073276226</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2895.834527455488</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>902.159979441687</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M42" t="n">
-        <v>902.159979441687</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N42" t="n">
-        <v>1799.152570258806</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>586.9412763995904</v>
+        <v>1123.98252783687</v>
       </c>
       <c r="C43" t="n">
-        <v>573.9197665674362</v>
+        <v>952.0099647157861</v>
       </c>
       <c r="D43" t="n">
-        <v>410.6029936942069</v>
+        <v>788.6931918425568</v>
       </c>
       <c r="E43" t="n">
-        <v>410.6029936942069</v>
+        <v>622.4849859954103</v>
       </c>
       <c r="F43" t="n">
-        <v>238.7412194687674</v>
+        <v>450.6232117699707</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299954</v>
+        <v>284.3662420642028</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2082.762229695263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.577781195567</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>1520.866313803596</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.013909976109</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X43" t="n">
-        <v>1003.450013421914</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="Y43" t="n">
-        <v>777.107245111656</v>
+        <v>1314.148496548936</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1818.98772962787</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1392.08699964117</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1392.08699964117</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.703079337054</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1614.703079337054</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>1614.703079337054</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2459.847729487866</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3168.127008645793</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664163</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.17336396451</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2644.17336396451</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2238.8360939194</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299954</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>662.9691763313391</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>1164.974163305011</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.974163305011</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>1164.974163305011</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>1164.974163305011</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>955.6359488891819</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>955.6359488891819</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>820.3760362929231</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457766</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>482.306056220337</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V46" t="n">
-        <v>1230.488352716669</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>955.6359488891819</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>955.6359488891819</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.6359488891819</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>32.95771412405789</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8061,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>413.0850919999605</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>464.1005135391148</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587967</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,13 +8148,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>313.4610661002594</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740798</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>359.7783135124</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>183.4310877314655</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>374.9029224977673</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8386,10 +8388,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>456.5787613602906</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>227.322966839075</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>1019.918210644102</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>498.6995305958305</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8778,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.73518417458098</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>640.0662131276742</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>728.3675687028212</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.88812489228231</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>730.3607534598153</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0343783945847</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>394.7585026918616</v>
+        <v>276.0147300838786</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9410,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>866.9865054704456</v>
       </c>
       <c r="O21" t="n">
         <v>921.6378271075471</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>268.1550667350194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9656,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>416.8356042521867</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>386.8988393430025</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>783.0169950311082</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>353.8126856499787</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>38.37143878131349</v>
       </c>
       <c r="O30" t="n">
-        <v>536.0439560200246</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>743.9259979858341</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>106.3367244377138</v>
+        <v>530.1725249301787</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M35" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>699.9714326937866</v>
       </c>
       <c r="M36" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>72.59316121846759</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,10 +10916,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>281.4457336203077</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>204.1650457864385</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719402</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11142,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>586.1294709557411</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510358</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176105</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11300,10 +11302,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>507.1070553433902</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>529.5908311320804</v>
+        <v>292.3948789900137</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11394,10 +11396,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>348.1322005579672</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>248.5689003297483</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>59.36332147843601</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>138.9491055015625</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>121.8275476130667</v>
+        <v>39.33536992702881</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>80.02537169597304</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>219.8900101007967</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>50.32427764706432</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>31.89677927120152</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>233.6872494859222</v>
+        <v>65.7855952182922</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0981677402018</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>236.5838919079025</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>146.6564532437565</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>104.6146881266995</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>63.52994056050414</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.51599332541801</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>129.5284158597472</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>158.3041973314064</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>132.5354188738654</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.10423698212725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>157.3615427560405</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>60.88629501226342</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>231.368754593877</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>132.5908555948598</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>489643.9153175278</v>
+        <v>490791.32454351</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>489643.9153175278</v>
+        <v>494506.3838922575</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>489643.9153175278</v>
+        <v>494506.3838922575</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403235.0944855168</v>
+        <v>507154.129421442</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403235.0944855169</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507154.1294214419</v>
+        <v>507154.129421442</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507154.1294214419</v>
+        <v>507154.129421442</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507154.1294214419</v>
+        <v>507154.129421442</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403235.0944855168</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403235.0944855168</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108836</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108839</v>
+        <v>567881.601310884</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283598</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.2692283599</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.643059011</v>
       </c>
       <c r="H2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="I2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="K2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="L2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="L2" t="n">
-        <v>547979.643059011</v>
-      </c>
       <c r="M2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="O2" t="n">
-        <v>435717.2692283597</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="P2" t="n">
-        <v>435717.2692283597</v>
+        <v>547979.6430590106</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204222</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204222</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.6272498637</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="O4" t="n">
+        <v>72380.62724986368</v>
+      </c>
+      <c r="P4" t="n">
         <v>72380.62724986373</v>
-      </c>
-      <c r="O4" t="n">
-        <v>57519.56881304551</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57519.56881304551</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152114.0570021131</v>
+        <v>147228.3615065494</v>
       </c>
       <c r="C6" t="n">
-        <v>306739.7776202336</v>
+        <v>294407.4510839445</v>
       </c>
       <c r="D6" t="n">
-        <v>306739.7776202335</v>
+        <v>317814.2847575568</v>
       </c>
       <c r="E6" t="n">
-        <v>190346.0025858328</v>
+        <v>182109.5970640768</v>
       </c>
       <c r="F6" t="n">
-        <v>323109.6705954348</v>
+        <v>397848.9536207174</v>
       </c>
       <c r="G6" t="n">
-        <v>295689.0335264076</v>
+        <v>397848.9536207176</v>
       </c>
       <c r="H6" t="n">
-        <v>397848.9536207175</v>
+        <v>397848.9536207174</v>
       </c>
       <c r="I6" t="n">
         <v>397848.9536207175</v>
       </c>
       <c r="J6" t="n">
-        <v>277126.4366779606</v>
+        <v>271271.6850404287</v>
       </c>
       <c r="K6" t="n">
+        <v>379202.3532636979</v>
+      </c>
+      <c r="L6" t="n">
         <v>397848.9536207175</v>
       </c>
-      <c r="L6" t="n">
-        <v>397848.9536207176</v>
-      </c>
       <c r="M6" t="n">
-        <v>287039.5935115841</v>
+        <v>217785.0821655497</v>
       </c>
       <c r="N6" t="n">
         <v>397848.9536207175</v>
       </c>
       <c r="O6" t="n">
-        <v>323109.6705954346</v>
+        <v>397848.9536207175</v>
       </c>
       <c r="P6" t="n">
-        <v>323109.6705954346</v>
+        <v>397848.9536207172</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603344</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>275.1008610641094</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>142.1755530335083</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.4599549873039</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>227.6278464307946</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>50.18120945273088</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.6408587400514</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>87.67585814708033</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>123.9706457695731</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>48.81198202095274</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>150.8315123879672</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.646284195090189</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>138.626409277883</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30463,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.537754638471368</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>390.570005285731</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>442.7574853255731</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,13 +34868,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>292.712165124659</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.6573877094215</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>324.0137127175907</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>352.3878357835378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35106,10 +35108,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9421661810885</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>982.4869477446701</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>461.1241687855992</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3921559610393105</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>616.894323405452</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>690.79220689259</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.76345028768426</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="N15" t="n">
-        <v>634.691350181043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>357.4788798574156</v>
+        <v>238.7351072494326</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36130,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>845.643477256904</v>
       </c>
       <c r="O21" t="n">
         <v>898.4659373853249</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.7351072494329</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36376,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>395.492576038645</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>357.478879857416</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="O30" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>706.646375151388</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>83.23994392538586</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M35" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>677.456345979557</v>
       </c>
       <c r="M36" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>50.07807450423802</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>258.2738438980855</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>166.7337828870067</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374942</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>563.6143842415115</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374942</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>369.349378528632</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38020,10 +38022,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>468.7950129107672</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>507.0757444178508</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2650608.612843117</v>
+        <v>2649911.951638026</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>343.5080926669369</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>76.54076221230486</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>158.4526492332384</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>51.26650628725682</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>168.5351057930823</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>22.51978202893052</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.38766003735405</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>150.0869070309797</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>203.0830083370458</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>91.1245983820366</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>30.32545238830306</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536215</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>239.5589827910226</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446589</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,10 +2061,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>59.00434261725469</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>246.9975734468499</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>129.8174841785999</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>206.3182845709199</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>60.1546697496713</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>135.5235694619535</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>116.167611819079</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>119.0784066832923</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068503</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>81.47201079466373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>167.9261600196103</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>146.3034971231916</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0709252622231</v>
+        <v>484.9246148323678</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2105993159273</v>
+        <v>462.0642888860719</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9179785009276</v>
+        <v>442.8120721114763</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918924</v>
+        <v>420.8755362997379</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899354</v>
+        <v>73.89766491899363</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884623</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="J2" t="n">
-        <v>42.2045123844041</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>521.1434366268325</v>
+        <v>859.672581249115</v>
       </c>
       <c r="L2" t="n">
-        <v>521.1434366268325</v>
+        <v>859.672581249115</v>
       </c>
       <c r="M2" t="n">
-        <v>521.1434366268325</v>
+        <v>859.672581249115</v>
       </c>
       <c r="N2" t="n">
-        <v>1000.082360869261</v>
+        <v>859.672581249115</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869261</v>
+        <v>1338.611505491544</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111689</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615872</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1753.425569264462</v>
+        <v>1714.181193660509</v>
       </c>
       <c r="U2" t="n">
-        <v>1753.425569264462</v>
+        <v>1714.181193660509</v>
       </c>
       <c r="V2" t="n">
-        <v>1395.936154390712</v>
+        <v>1714.181193660509</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.936154390712</v>
+        <v>1317.789843960856</v>
       </c>
       <c r="X2" t="n">
-        <v>984.2161555584588</v>
+        <v>906.0698451286034</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.9192895537532</v>
+        <v>904.7729791238978</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000793</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231744</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231744</v>
+        <v>789.3385488143379</v>
       </c>
       <c r="L3" t="n">
-        <v>425.3664405251911</v>
+        <v>789.3385488143379</v>
       </c>
       <c r="M3" t="n">
-        <v>425.3664405251911</v>
+        <v>889.5119173879689</v>
       </c>
       <c r="N3" t="n">
-        <v>904.3053647676195</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="O3" t="n">
-        <v>904.3053647676195</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>958.566484943325</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="C4" t="n">
-        <v>786.593921822241</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647546</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>38.71266663274258</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.4019879271634</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974142</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.93310382218</v>
+        <v>1521.632369360911</v>
       </c>
       <c r="U4" t="n">
-        <v>1717.93310382218</v>
+        <v>1241.447920861215</v>
       </c>
       <c r="V4" t="n">
-        <v>1666.148754037072</v>
+        <v>959.7364534692442</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.296350209585</v>
+        <v>684.8840496417572</v>
       </c>
       <c r="X4" t="n">
-        <v>1148.732453655391</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="Y4" t="n">
-        <v>1148.732453655391</v>
+        <v>442.3201530875623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4570,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1950.306477736444</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1691.951568332856</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1691.951568332856</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.560218633203</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>1287.880623841354</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839.1397001855348</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>667.1671370644508</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>667.1671370644508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>500.9589312173043</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>329.0971569918647</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>162.8401872860969</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4740,37 +4740,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2054.776204981511</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1773.06473758954</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1498.212333762053</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1255.648437207858</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.305668897601</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>1874.83396633247</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1657.054697076327</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1260.663347376674</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>874.3078922751886</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1424.973427259627</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>976.1595596926588</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>804.1869965715748</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>640.8702236983455</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>474.662017851199</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>302.8002436257594</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.5432739199916</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.5432739199916</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.502328002917</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.1595596926588</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5041,22 +5041,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>2720.098147267828</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N11" t="n">
-        <v>3696.349205754529</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4541.493855905341</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
         <v>4541.493855905341</v>
@@ -5068,10 +5068,10 @@
         <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1218.245653730238</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.245653730238</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1218.245653730238</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3580.016453211603</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>3408.043890090519</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>3244.72711721729</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>4824.757709204499</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>4544.573260704804</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>4513.941490615609</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>4239.089086788122</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>3996.525190233927</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>3770.182421923669</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291426</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,16 +5354,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.799010768326</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
         <v>1910.990343986338</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>609.4538236255814</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>437.4812605044974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
         <v>274.1644876312681</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1543.378861029587</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1268.5264572021</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.962560647905</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.6197923376471</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
         <v>2988.069926596601</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5603,19 +5603,19 @@
         <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>739.6560874287652</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808981</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.417937673434</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1482.417937673434</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1239.854041119239</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.511272808981</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,37 +5761,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>939.4897558901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.9588572096898</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.883894613695</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1515.031490786208</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.467594232013</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1046.124825921755</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>333.2000535631283</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>333.2000535631283</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>333.2000535631283</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>333.2000535631283</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6180,19 +6180,19 @@
         <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1710.626312340059</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1502.224004692665</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1502.224004692665</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.881236382407</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
         <v>3833.214576747414</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3098.039415751528</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.986740661465</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.392528877774</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>675.392528877774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>512.0757560045447</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1091.901265900098</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>865.5584975898396</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
         <v>2467.904347614084</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1139.50808509631</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>967.5355219752259</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1830.869225946121</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1556.016822118634</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1556.016822118634</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1329.674053808376</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,31 +7174,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>4398.937953252929</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.226866224298</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032136</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828378</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1992.299474466079</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1710.588007074108</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1435.735603246621</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1435.735603246621</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.392834936363</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7399,58 +7399,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>374.0002026854196</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1463.315149158289</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1463.315149158289</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1463.315149158289</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
         <v>1828.971033901635</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1123.98252783687</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>952.0099647157861</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>788.6931918425568</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>622.4849859954103</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>450.6232117699707</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>284.3662420642028</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1540.491264859194</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1540.491264859194</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1540.491264859194</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1314.148496548936</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
         <v>202.0712816655526</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1992.33777973203</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1844.556469506584</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.95771412405789</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487774</v>
+        <v>498.761557501781</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884141</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641994</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873023</v>
       </c>
       <c r="L3" t="n">
-        <v>413.0850919999605</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>124.2820012937735</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675097</v>
+        <v>505.1197193675107</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587967</v>
+        <v>505.5475323587977</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031307</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740798</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>183.4310877314655</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,22 +8303,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8470,7 +8470,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6369203512731</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>371.4608596749573</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1019.918210644102</v>
+        <v>877.2336749314286</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,7 +8707,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>640.0662131276742</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>728.3675687028212</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>730.3607534598153</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
-        <v>276.0147300838786</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>392.4461590409599</v>
+        <v>852.180037343056</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
-        <v>625.182225377852</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>96.32919668103045</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>866.9865054704456</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>921.6378271075471</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>722.914001092021</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1027.220259954781</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>220.6341467432656</v>
       </c>
       <c r="N27" t="n">
-        <v>783.0169950311082</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>741.6322999927428</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>38.37143878131349</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>530.1725249301787</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10591,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>699.9714326937866</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>246.4550026904803</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>423.228367941047</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130248</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>281.4457336203077</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>144.9584781332583</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,10 +11068,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>276.0147300838795</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>392.0964168176105</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>292.3948789900137</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>248.5689003297483</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>39.33536992702881</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.8900101007967</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.89677927120152</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12.54082162832722</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.7855952182922</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0981677402018</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>104.6146881266995</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.51599332541801</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3041973314064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>60.88629501226342</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.326677470262808</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>132.5908555948598</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490791.32454351</v>
+        <v>490791.3245435101</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507154.1294214419</v>
+        <v>507154.129421442</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507154.129421442</v>
+        <v>507154.1294214419</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.6013108836</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="C2" t="n">
         <v>567881.6013108839</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="F2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="H2" t="n">
         <v>547979.6430590107</v>
@@ -26337,25 +26337,25 @@
         <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="K2" t="n">
         <v>547979.6430590109</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.6430590111</v>
       </c>
       <c r="L2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="O2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="P2" t="n">
         <v>547979.6430590109</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547979.6430590106</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361221</v>
+        <v>23406.83367361189</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701953</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125816</v>
       </c>
       <c r="C4" t="n">
         <v>182621.0655158991</v>
@@ -26429,37 +26429,37 @@
         <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="G4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986367</v>
-      </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986368</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26487,7 +26487,7 @@
         <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>147228.3615065494</v>
       </c>
       <c r="C6" t="n">
-        <v>294407.4510839445</v>
+        <v>294407.4510839448</v>
       </c>
       <c r="D6" t="n">
-        <v>317814.2847575568</v>
+        <v>317814.2847575566</v>
       </c>
       <c r="E6" t="n">
-        <v>182109.5970640768</v>
+        <v>182058.5664018925</v>
       </c>
       <c r="F6" t="n">
-        <v>397848.9536207174</v>
+        <v>397797.922958533</v>
       </c>
       <c r="G6" t="n">
-        <v>397848.9536207176</v>
+        <v>397797.922958533</v>
       </c>
       <c r="H6" t="n">
-        <v>397848.9536207174</v>
+        <v>397797.9229585331</v>
       </c>
       <c r="I6" t="n">
-        <v>397848.9536207175</v>
+        <v>397797.9229585332</v>
       </c>
       <c r="J6" t="n">
-        <v>271271.6850404287</v>
+        <v>271220.6543782438</v>
       </c>
       <c r="K6" t="n">
-        <v>379202.3532636979</v>
+        <v>379151.3226015136</v>
       </c>
       <c r="L6" t="n">
-        <v>397848.9536207175</v>
+        <v>397797.9229585332</v>
       </c>
       <c r="M6" t="n">
-        <v>217785.0821655497</v>
+        <v>217734.0515033656</v>
       </c>
       <c r="N6" t="n">
-        <v>397848.9536207175</v>
+        <v>397797.9229585332</v>
       </c>
       <c r="O6" t="n">
-        <v>397848.9536207175</v>
+        <v>397797.922958533</v>
       </c>
       <c r="P6" t="n">
-        <v>397848.9536207172</v>
+        <v>397797.9229585332</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>77.36484732555687</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>142.1755530335083</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.14175077547182</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>227.6278464307946</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>50.18120945273088</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>331.3947386960825</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>123.9706457695731</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>272.5448156558532</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>150.8315123879672</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.646284195090189</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146997</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.498764579254604e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.537754638471368</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.776691153968</v>
+        <v>462.9969567069717</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P2" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L3" t="n">
-        <v>390.570005285731</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>101.1852207814455</v>
       </c>
       <c r="N3" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.776691153968</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771760107159</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.6573877094215</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>162.8199733981322</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>73.06155854104179</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>349.6900184701286</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>982.4869477446701</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,7 +35427,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>616.894323405452</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>690.79220689259</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>707.2639729474873</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7351072494326</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>369.3493785286319</v>
+        <v>829.083256830728</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>75.71808234769712</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>845.643477256904</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>898.4659373853249</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>989.7889970553492</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="N27" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>17.02841056777183</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>677.456345979557</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>385.7971050416152</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>258.2738438980855</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>122.2114398442798</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,10 +37788,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>238.7351072494335</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.349378528632</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
